--- a/recap.xlsx
+++ b/recap.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/braibau/DEV/GitHub/EnphaseAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/braibaud/DEV/Github/EnphaseAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B80CB2D-5CCF-D34F-A14A-ABA133CD6AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5196D45-69FA-774C-B700-AA8096523E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="520" windowWidth="30920" windowHeight="27120" xr2:uid="{172A6986-887E-4246-B133-B5D3EDDC0992}"/>
+    <workbookView xWindow="12800" yWindow="500" windowWidth="25600" windowHeight="27080" xr2:uid="{172A6986-887E-4246-B133-B5D3EDDC0992}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -164,9 +165,6 @@
     <t>Computed at HP and HC cost</t>
   </si>
   <si>
-    <t>"Battery &gt; House" - "Solar &gt; Battery" - "Grid &gt; Battery"</t>
-  </si>
-  <si>
     <t>Total rebate</t>
   </si>
   <si>
@@ -174,6 +172,9 @@
   </si>
   <si>
     <t>Battery contribution to rebate</t>
+  </si>
+  <si>
+    <t>"Battery &gt; House" - "Solar &gt; Battery" + "Grid &gt; Battery"</t>
   </si>
 </sst>
 </file>
@@ -683,19 +684,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A9FE4E-829B-DC4C-98CC-8564B1C52442}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="5.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59" style="1" customWidth="1"/>
-    <col min="8" max="13" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="1" customWidth="1"/>
+    <col min="8" max="13" width="13.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -751,22 +752,22 @@
         <v>41</v>
       </c>
       <c r="H2" s="1">
-        <v>1061.92</v>
+        <v>697.98</v>
       </c>
       <c r="I2" s="1">
-        <v>5102.95</v>
+        <v>3354.07</v>
       </c>
       <c r="J2" s="1">
-        <v>700.28</v>
+        <v>91.88</v>
       </c>
       <c r="K2" s="1">
-        <v>4283.08</v>
+        <v>561.97</v>
       </c>
       <c r="L2" s="1">
-        <v>1762.21</v>
+        <v>789.86</v>
       </c>
       <c r="M2" s="1">
-        <v>9386.0300000000007</v>
+        <v>3916.04</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -787,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1233.48</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>7544.22</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1233.48</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>7544.22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -841,22 +842,22 @@
         <v>38</v>
       </c>
       <c r="H5" s="1">
-        <v>-413.09</v>
+        <v>-777.03</v>
       </c>
       <c r="I5" s="1">
-        <v>1985.05</v>
+        <v>3733.93</v>
       </c>
       <c r="J5" s="1">
-        <v>-65.489999999999995</v>
+        <v>-673.9</v>
       </c>
       <c r="K5" s="1">
-        <v>400.57</v>
+        <v>4121.6899999999996</v>
       </c>
       <c r="L5" s="1">
-        <v>-478.58</v>
+        <v>-1450.93</v>
       </c>
       <c r="M5" s="1">
-        <v>2385.63</v>
+        <v>7855.62</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -872,22 +873,22 @@
         <v>39</v>
       </c>
       <c r="H6" s="1">
-        <v>263.79000000000002</v>
+        <v>113.92</v>
       </c>
       <c r="I6" s="1">
-        <v>2637.9</v>
+        <v>1139.23</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>263.79000000000002</v>
+        <v>113.92</v>
       </c>
       <c r="M6" s="1">
-        <v>2637.91</v>
+        <v>1139.23</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -902,22 +903,22 @@
         <v>40</v>
       </c>
       <c r="H7" s="1">
-        <v>-421.16</v>
+        <v>-571.03</v>
       </c>
       <c r="I7" s="1">
-        <v>4211.6099999999997</v>
+        <v>5710.29</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L7" s="1">
-        <v>-421.16</v>
+        <v>-571.03</v>
       </c>
       <c r="M7" s="1">
-        <v>4211.6099999999997</v>
+        <v>5710.3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -930,8 +931,14 @@
       <c r="H8" s="1">
         <v>375.13</v>
       </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="1">
         <v>187.58</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>562.71</v>
@@ -955,7 +962,7 @@
       </c>
       <c r="H10" s="1">
         <f>H4+H7+H6</f>
-        <v>-940.69</v>
+        <v>-1240.4299999999998</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ref="J10:L10" si="0">J4+J7+J6</f>
@@ -963,7 +970,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>-942.76</v>
+        <v>-1242.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -974,19 +981,19 @@
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1">
-        <f>H5-H3-H6</f>
-        <v>-676.88</v>
+        <f>H5+H3-H6</f>
+        <v>-890.94999999999993</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:L11" si="1">J5-J3-J6</f>
-        <v>-65.489999999999995</v>
+        <f t="shared" ref="I11:M11" si="1">J5+J3-J6</f>
+        <v>559.58000000000004</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>-742.37</v>
+        <v>-331.37000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,15 +1008,15 @@
       </c>
       <c r="H12" s="1">
         <f>H10+H11</f>
-        <v>-1617.5700000000002</v>
+        <v>-2131.3799999999997</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ref="J12:L12" si="2">J10+J11</f>
-        <v>-67.559999999999988</v>
+        <v>557.51</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="2"/>
-        <v>-1685.13</v>
+        <v>-1573.8700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,22 +1027,22 @@
         <v>21</v>
       </c>
       <c r="H14" s="1">
-        <v>1061.92</v>
+        <v>697.98</v>
       </c>
       <c r="I14" s="1">
-        <v>5102.95</v>
+        <v>3354.07</v>
       </c>
       <c r="J14" s="1">
-        <v>700.28</v>
+        <v>1325.36</v>
       </c>
       <c r="K14" s="1">
-        <v>4283.08</v>
+        <v>8106.19</v>
       </c>
       <c r="L14" s="1">
-        <v>1762.21</v>
+        <v>2023.34</v>
       </c>
       <c r="M14" s="1">
-        <v>9386.0300000000007</v>
+        <v>11460.26</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1046,22 +1053,22 @@
         <v>22</v>
       </c>
       <c r="H15" s="1">
-        <v>-421.16</v>
+        <v>-571.03</v>
       </c>
       <c r="I15" s="1">
-        <v>4211.6099999999997</v>
+        <v>5710.29</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L15" s="1">
-        <v>-421.16</v>
+        <v>-571.03</v>
       </c>
       <c r="M15" s="1">
-        <v>4211.6099999999997</v>
+        <v>5710.3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1072,22 +1079,22 @@
         <v>24</v>
       </c>
       <c r="H16" s="1">
-        <v>263.79000000000002</v>
+        <v>113.92</v>
       </c>
       <c r="I16" s="1">
-        <v>2637.9</v>
+        <v>1139.23</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1233.48</v>
       </c>
       <c r="K16" s="1">
-        <v>0.01</v>
+        <v>7544.23</v>
       </c>
       <c r="L16" s="1">
-        <v>263.79000000000002</v>
+        <v>1347.4</v>
       </c>
       <c r="M16" s="1">
-        <v>2637.91</v>
+        <v>8683.4500000000007</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1098,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="1">
-        <v>-940.7</v>
+        <v>-1240.43</v>
       </c>
       <c r="I17" s="1">
         <v>10613.69</v>
@@ -1110,7 +1117,7 @@
         <v>12.66</v>
       </c>
       <c r="L17" s="1">
-        <v>-942.76</v>
+        <v>-1242.5</v>
       </c>
       <c r="M17" s="1">
         <v>10626.35</v>
@@ -1124,19 +1131,19 @@
         <v>23</v>
       </c>
       <c r="H18" s="1">
-        <v>-134.49</v>
+        <v>-862.37</v>
       </c>
       <c r="I18" s="1">
-        <v>10852.17</v>
+        <v>10852.18</v>
       </c>
       <c r="J18" s="1">
-        <v>632.72</v>
+        <v>-584.08000000000004</v>
       </c>
       <c r="K18" s="1">
         <v>4696.3100000000004</v>
       </c>
       <c r="L18" s="1">
-        <v>498.23</v>
+        <v>-1446.46</v>
       </c>
       <c r="M18" s="1">
         <v>15548.48</v>
@@ -1156,7 +1163,7 @@
         <v>2258.34</v>
       </c>
       <c r="I19" s="1">
-        <v>10852.17</v>
+        <v>10852.18</v>
       </c>
       <c r="J19" s="1">
         <v>767.85</v>
@@ -1182,13 +1189,13 @@
         <v>27</v>
       </c>
       <c r="H20" s="1">
-        <v>1015.89</v>
+        <v>502.08</v>
       </c>
       <c r="J20" s="1">
-        <v>887.87</v>
+        <v>1512.94</v>
       </c>
       <c r="L20" s="2">
-        <v>1903.76</v>
+        <v>2015.02</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,87 +1209,104 @@
         <v>32</v>
       </c>
       <c r="H21" s="1">
-        <f>H19+H8</f>
-        <v>2633.4700000000003</v>
+        <v>2633.47</v>
       </c>
       <c r="J21" s="1">
-        <f>J19+J8</f>
-        <v>955.43000000000006</v>
+        <v>955.43</v>
       </c>
       <c r="L21" s="1">
-        <f>L19+L8</f>
         <v>3588.89</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H23" s="1">
         <f t="shared" ref="H23:J23" si="3">H21-H20</f>
-        <v>1617.5800000000004</v>
+        <v>2131.39</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="3"/>
-        <v>67.560000000000059</v>
+        <v>-557.5100000000001</v>
       </c>
       <c r="L23" s="1">
         <f>L21-L20</f>
-        <v>1685.1299999999999</v>
+        <v>1573.87</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" ref="H24:J24" si="4">H23/H21</f>
-        <v>0.61423900784895979</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3">
+        <v>18</v>
+      </c>
+      <c r="H24" s="1">
+        <f>H23+H10</f>
+        <v>890.96</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ref="I24:L24" si="4">J23+J10</f>
+        <v>-559.58000000000015</v>
+      </c>
+      <c r="L24" s="1">
         <f t="shared" si="4"/>
-        <v>7.0711616758946286E-2</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3">
-        <f>L23/L21</f>
-        <v>0.46954072150442056</v>
+        <v>331.36999999999989</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="10" t="s">
-        <v>44</v>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="H25" s="3">
-        <f>ABS(H10)/H23</f>
-        <v>0.5815415620865737</v>
+        <f t="shared" ref="H25:J25" si="5">H23/H21</f>
+        <v>0.80934660353070287</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
-        <f t="shared" ref="J25:L25" si="5">ABS(J10)/J23</f>
-        <v>3.0639431616341001E-2</v>
+        <f t="shared" si="5"/>
+        <v>-0.58351736914268981</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3">
-        <f t="shared" si="5"/>
-        <v>0.55945832072303026</v>
+        <f>L23/L21</f>
+        <v>0.43853949271223136</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G26" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26" s="3">
-        <f>ABS(H11)/H23</f>
-        <v>0.41845225583896922</v>
+        <f>ABS(H10)/H23</f>
+        <v>0.58198171146528788</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
-        <f t="shared" ref="J26:L26" si="6">ABS(J11)/J23</f>
-        <v>0.96936056838365803</v>
+        <f t="shared" ref="J26:L26" si="6">ABS(J10)/J23</f>
+        <v>-3.7129378845222496E-3</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3">
         <f t="shared" si="6"/>
-        <v>0.44054167927696974</v>
+        <v>0.78945529173311646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="3">
+        <f>ABS(H11)/H23</f>
+        <v>0.4180135967607993</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <f t="shared" ref="J27:L27" si="7">ABS(J11)/J23</f>
+        <v>-1.0037129378845222</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2105447082668836</v>
       </c>
     </row>
   </sheetData>
@@ -1293,4 +1317,469 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24145362-9941-1641-84B4-67D54B8C0C64}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>697.98</v>
+      </c>
+      <c r="D2">
+        <v>3354.07</v>
+      </c>
+      <c r="E2">
+        <v>91.88</v>
+      </c>
+      <c r="F2">
+        <v>561.97</v>
+      </c>
+      <c r="G2">
+        <v>789.86</v>
+      </c>
+      <c r="H2">
+        <v>3916.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1233.48</v>
+      </c>
+      <c r="F3">
+        <v>7544.22</v>
+      </c>
+      <c r="G3">
+        <v>1233.48</v>
+      </c>
+      <c r="H3">
+        <v>7544.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>-783.32</v>
+      </c>
+      <c r="D4">
+        <v>3764.17</v>
+      </c>
+      <c r="E4">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="F4">
+        <v>12.65</v>
+      </c>
+      <c r="G4">
+        <v>-785.39</v>
+      </c>
+      <c r="H4">
+        <v>3776.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>-777.03</v>
+      </c>
+      <c r="D5">
+        <v>3733.93</v>
+      </c>
+      <c r="E5">
+        <v>-673.9</v>
+      </c>
+      <c r="F5">
+        <v>4121.6899999999996</v>
+      </c>
+      <c r="G5">
+        <v>-1450.93</v>
+      </c>
+      <c r="H5">
+        <v>7855.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>113.92</v>
+      </c>
+      <c r="D6">
+        <v>1139.23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>113.92</v>
+      </c>
+      <c r="H6">
+        <v>1139.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>-571.03</v>
+      </c>
+      <c r="D7">
+        <v>5710.29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>-571.03</v>
+      </c>
+      <c r="H7">
+        <v>5710.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>375.13</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>187.58</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>562.71</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>-1240.43</v>
+      </c>
+      <c r="E9">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="G9">
+        <v>-1242.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>-890.95</v>
+      </c>
+      <c r="E10">
+        <v>-1907.38</v>
+      </c>
+      <c r="G10">
+        <v>-2798.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>-2131.39</v>
+      </c>
+      <c r="E11">
+        <v>-1909.45</v>
+      </c>
+      <c r="G11">
+        <v>-4040.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>697.98</v>
+      </c>
+      <c r="D12">
+        <v>3354.07</v>
+      </c>
+      <c r="E12">
+        <v>1325.36</v>
+      </c>
+      <c r="F12">
+        <v>8106.19</v>
+      </c>
+      <c r="G12">
+        <v>2023.34</v>
+      </c>
+      <c r="H12">
+        <v>11460.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>-571.03</v>
+      </c>
+      <c r="D13">
+        <v>5710.29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>-571.03</v>
+      </c>
+      <c r="H13">
+        <v>5710.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>113.92</v>
+      </c>
+      <c r="D14">
+        <v>1139.23</v>
+      </c>
+      <c r="E14">
+        <v>1233.48</v>
+      </c>
+      <c r="F14">
+        <v>7544.23</v>
+      </c>
+      <c r="G14">
+        <v>1347.4</v>
+      </c>
+      <c r="H14">
+        <v>8683.4500000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>-1240.43</v>
+      </c>
+      <c r="D15">
+        <v>10613.69</v>
+      </c>
+      <c r="E15">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="F15">
+        <v>12.66</v>
+      </c>
+      <c r="G15">
+        <v>-1242.5</v>
+      </c>
+      <c r="H15">
+        <v>10626.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>-862.37</v>
+      </c>
+      <c r="D16">
+        <v>10852.18</v>
+      </c>
+      <c r="E16">
+        <v>-584.08000000000004</v>
+      </c>
+      <c r="F16">
+        <v>4696.3100000000004</v>
+      </c>
+      <c r="G16">
+        <v>-1446.46</v>
+      </c>
+      <c r="H16">
+        <v>15548.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>2258.34</v>
+      </c>
+      <c r="D17">
+        <v>10852.18</v>
+      </c>
+      <c r="E17">
+        <v>767.85</v>
+      </c>
+      <c r="F17">
+        <v>4696.3100000000004</v>
+      </c>
+      <c r="G17">
+        <v>3026.18</v>
+      </c>
+      <c r="H17">
+        <v>15548.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>502.08</v>
+      </c>
+      <c r="E18">
+        <v>1512.94</v>
+      </c>
+      <c r="G18">
+        <v>2015.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>2633.47</v>
+      </c>
+      <c r="E19">
+        <v>955.43</v>
+      </c>
+      <c r="G19">
+        <v>3588.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>